--- a/CRM/src/main/resources/ninza.xlsx
+++ b/CRM/src/main/resources/ninza.xlsx
@@ -12,12 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>CAM15253</t>
   </si>
   <si>
     <t>TYPUserAmruta</t>
+  </si>
+  <si>
+    <t>CAM15658</t>
+  </si>
+  <si>
+    <t>hjajhha</t>
   </si>
 </sst>
 </file>
@@ -70,17 +76,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/CRM/src/main/resources/ninza.xlsx
+++ b/CRM/src/main/resources/ninza.xlsx
@@ -28,12 +28,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>CAM15658</t>
+    <t>Target Size</t>
   </si>
   <si>
-    <t>hjajhha</t>
+    <t>Expected Close Date</t>
+  </si>
+  <si>
+    <t>2326</t>
+  </si>
+  <si>
+    <t>2025-10-26</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -508,7 +517,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1193,19 +1202,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.8571428571429" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.14285714285714" collapsed="true"/>
+    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1213,6 +1222,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
